--- a/assessment_tree.xlsx
+++ b/assessment_tree.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sklinke1/Git Repos/assessment_tree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochelle/Documents/Git/Kennistoetsen-over-Toetsing/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B8C15E-8C44-EE45-AA80-5703E9751FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="1120" windowWidth="25520" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="3280" yWindow="500" windowWidth="25520" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="25">
   <si>
     <t>question.type</t>
   </si>
@@ -96,13 +97,19 @@
   </si>
   <si>
     <t>LMS</t>
+  </si>
+  <si>
+    <t>tooltip</t>
+  </si>
+  <si>
+    <t>www.surf.nl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +121,15 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,14 +149,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -148,6 +167,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -415,11 +437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +450,7 @@
     <col min="2" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +463,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -455,8 +480,11 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -470,7 +498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,7 +512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -498,7 +526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -510,7 +538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -522,7 +550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -534,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -546,7 +574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -558,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -572,7 +600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -586,7 +614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -600,7 +628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -614,7 +642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -628,7 +656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -861,6 +889,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{208AFDDE-A768-0C43-A1AA-23735FC798E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>